--- a/data/steel/factories/IBF_factory.xlsx
+++ b/data/steel/factories/IBF_factory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5029B8-BC7A-4B44-B965-3DF8FB41A8DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E322A81-4008-1E45-8506-D2399E213924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>Inflow</t>
   </si>
@@ -128,9 +128,6 @@
     <t>o flowtype</t>
   </si>
   <si>
-    <t>fuel</t>
-  </si>
-  <si>
     <t>process_ID</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>simple_oxygen</t>
   </si>
   <si>
-    <t>simple_fuel</t>
-  </si>
-  <si>
     <t>simple_pellets</t>
   </si>
   <si>
@@ -176,13 +170,10 @@
     <t>primary fuel</t>
   </si>
   <si>
-    <t>secondary fuel</t>
-  </si>
-  <si>
-    <t>secondary biofuel</t>
-  </si>
-  <si>
-    <t>biofuel</t>
+    <t>simple_casting</t>
+  </si>
+  <si>
+    <t>hot rolled coil</t>
   </si>
 </sst>
 </file>
@@ -573,7 +564,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -625,21 +616,21 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -653,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -667,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -681,22 +672,11 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="1"/>
@@ -713,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,25 +756,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -802,13 +782,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -817,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -828,22 +808,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -851,25 +831,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -895,7 +875,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -903,7 +883,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -918,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
@@ -932,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -947,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -973,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -999,7 +979,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -1025,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
@@ -1051,7 +1031,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -1059,7 +1039,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1077,169 +1057,42 @@
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F14" s="6"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
     </row>
@@ -1252,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1279,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1290,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1301,16 +1154,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>

--- a/data/steel/factories/IBF_factory.xlsx
+++ b/data/steel/factories/IBF_factory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E322A81-4008-1E45-8506-D2399E213924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E9D0D-CDBB-644D-88BB-C5AC0EFD48D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1105,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/data/steel/factories/IBF_factory.xlsx
+++ b/data/steel/factories/IBF_factory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E9D0D-CDBB-644D-88BB-C5AC0EFD48D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A25408-8B4B-1F42-A719-D57C27D42319}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>Inflow</t>
   </si>
@@ -563,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -691,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,33 +831,33 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
@@ -883,59 +883,59 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1013,15 +1013,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1038,30 +1038,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
+      <c r="F13" s="6"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F14" s="6"/>
@@ -1084,17 +1063,12 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/steel/factories/IBF_factory.xlsx
+++ b/data/steel/factories/IBF_factory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A25408-8B4B-1F42-A719-D57C27D42319}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>Inflow</t>
   </si>
@@ -174,15 +173,28 @@
   </si>
   <si>
     <t>hot rolled coil</t>
+  </si>
+  <si>
+    <t>steel scrap (mill)</t>
+  </si>
+  <si>
+    <t>steel scrap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -236,20 +248,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,21 +574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -591,7 +605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -605,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -619,7 +633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -633,7 +647,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -647,7 +661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -661,7 +675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -675,13 +689,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
     </row>
   </sheetData>
@@ -690,30 +704,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -751,76 +765,79 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
+      <c r="C2" t="s">
+        <v>47</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
@@ -829,35 +846,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
+      <c r="C5" t="s">
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -872,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
@@ -881,61 +898,61 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -959,9 +976,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -985,9 +1002,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1011,17 +1028,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1037,38 +1054,59 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="6"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1076,21 +1114,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1145,7 +1183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/factories/IBF_factory.xlsx
+++ b/data/steel/factories/IBF_factory.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0096C187-6EA6-F843-A1B8-A370DFE8FBEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="17060" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
   <si>
     <t>Inflow</t>
   </si>
@@ -157,9 +164,6 @@
     <t>simple_coke</t>
   </si>
   <si>
-    <t>outflows</t>
-  </si>
-  <si>
     <t>simple_power</t>
   </si>
   <si>
@@ -179,12 +183,24 @@
   </si>
   <si>
     <t>steel scrap</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>simple_charcoal</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>secondary biofuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -263,7 +279,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,21 +590,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -605,12 +621,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -619,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -633,7 +649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -647,7 +663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -661,7 +677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -675,7 +691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -686,16 +702,27 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
     </row>
   </sheetData>
@@ -704,30 +731,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -765,21 +792,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -791,10 +818,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -820,7 +847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -831,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -846,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -857,13 +884,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>42</v>
@@ -872,7 +899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -898,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -915,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>36</v>
@@ -924,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -950,163 +977,319 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="1"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+      <c r="I26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,21 +1297,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,18 +1355,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
